--- a/data/trans_orig/P36B_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Provincia-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51B73E3-F3D9-4A7D-9C23-33556DCA7115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB5F22BA-F8F3-46F3-B723-D0D49178E3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5200D14B-4E1F-4747-A9AF-9697989F755E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE4B9B52-9F9F-4727-98B1-B18DC84901FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,41 +39,1445 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>47,47%</t>
   </si>
   <si>
@@ -92,15 +1499,9 @@
     <t>51,97%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
     <t>55,66%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>52,53%</t>
   </si>
   <si>
@@ -125,15 +1526,6 @@
     <t>44,34%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
     <t>55,37%</t>
   </si>
   <si>
@@ -188,15 +1580,9 @@
     <t>42,65%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
     <t>58,01%</t>
   </si>
   <si>
-    <t>52,6%</t>
-  </si>
-  <si>
     <t>63,12%</t>
   </si>
   <si>
@@ -224,9 +1610,6 @@
     <t>36,88%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
     <t>25,47%</t>
   </si>
   <si>
@@ -245,9 +1628,6 @@
     <t>36,7%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
     <t>85,07%</t>
   </si>
   <si>
@@ -302,9 +1682,6 @@
     <t>16,49%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
     <t>95,15%</t>
   </si>
   <si>
@@ -359,9 +1736,6 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
     <t>56,48%</t>
   </si>
   <si>
@@ -416,9 +1790,6 @@
     <t>44,65%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
     <t>71,63%</t>
   </si>
   <si>
@@ -428,9 +1799,6 @@
     <t>75,8%</t>
   </si>
   <si>
-    <t>77,86%</t>
-  </si>
-  <si>
     <t>73,3%</t>
   </si>
   <si>
@@ -455,9 +1823,6 @@
     <t>33,05%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
     <t>13,0%</t>
   </si>
   <si>
@@ -473,9 +1838,6 @@
     <t>28,23%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>86,34%</t>
   </si>
   <si>
@@ -533,9 +1895,6 @@
     <t>71,12%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
     <t>73,14%</t>
   </si>
   <si>
@@ -563,9 +1922,6 @@
     <t>26,86%</t>
   </si>
   <si>
-    <t>30,78%</t>
-  </si>
-  <si>
     <t>22,9%</t>
   </si>
   <si>
@@ -582,9 +1938,6 @@
   </si>
   <si>
     <t>27,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
 </sst>
 </file>
@@ -996,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1506AA32-C881-431B-B9A8-9A7011970696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F518EBB-E2EF-4956-948D-40DB9F7C8FC3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1114,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>123562</v>
+        <v>60352</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1129,10 +2482,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7">
-        <v>152759</v>
+        <v>84549</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1144,10 +2497,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>491</v>
+        <v>137</v>
       </c>
       <c r="N4" s="7">
-        <v>276320</v>
+        <v>144901</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1165,10 +2518,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D5" s="7">
-        <v>136736</v>
+        <v>211824</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1180,10 +2533,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="I5" s="7">
-        <v>118644</v>
+        <v>176289</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1198,7 +2551,7 @@
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>255380</v>
+        <v>388113</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1216,10 +2569,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>272176</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1231,10 +2584,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>538</v>
+        <v>245</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1246,10 +2599,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>869</v>
+        <v>515</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>533014</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1269,10 +2622,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>287537</v>
+        <v>87670</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1284,10 +2637,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>479</v>
+        <v>129</v>
       </c>
       <c r="I7" s="7">
-        <v>364460</v>
+        <v>133269</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1299,10 +2652,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>692</v>
+        <v>207</v>
       </c>
       <c r="N7" s="7">
-        <v>651997</v>
+        <v>220939</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1320,10 +2673,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>169</v>
+        <v>387</v>
       </c>
       <c r="D8" s="7">
-        <v>231760</v>
+        <v>405405</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1335,10 +2688,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>238</v>
+        <v>370</v>
       </c>
       <c r="I8" s="7">
-        <v>190106</v>
+        <v>370680</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1350,10 +2703,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>407</v>
+        <v>757</v>
       </c>
       <c r="N8" s="7">
-        <v>421867</v>
+        <v>776085</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1371,10 +2724,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>382</v>
+        <v>465</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>493075</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1386,10 +2739,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>717</v>
+        <v>499</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1401,10 +2754,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>964</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>997024</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1424,10 +2777,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>186944</v>
+        <v>49327</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1439,10 +2792,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>406</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>276546</v>
+        <v>59576</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1454,10 +2807,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>627</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>463491</v>
+        <v>108904</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1475,10 +2828,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="D11" s="7">
-        <v>135296</v>
+        <v>269519</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1490,10 +2843,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="I11" s="7">
-        <v>94527</v>
+        <v>275836</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1505,10 +2858,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>265</v>
+        <v>536</v>
       </c>
       <c r="N11" s="7">
-        <v>229823</v>
+        <v>545354</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1526,10 +2879,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1541,10 +2894,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>532</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>371073</v>
+        <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1556,10 +2909,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>892</v>
+        <v>645</v>
       </c>
       <c r="N12" s="7">
-        <v>693314</v>
+        <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1579,10 +2932,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>273478</v>
+        <v>83438</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1594,10 +2947,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>521</v>
+        <v>124</v>
       </c>
       <c r="I13" s="7">
-        <v>374345</v>
+        <v>121769</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1609,10 +2962,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>767</v>
+        <v>207</v>
       </c>
       <c r="N13" s="7">
-        <v>647822</v>
+        <v>205207</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1630,10 +2983,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>47978</v>
+        <v>275233</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1645,10 +2998,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="I14" s="7">
-        <v>54211</v>
+        <v>249687</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1660,10 +3013,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>123</v>
+        <v>539</v>
       </c>
       <c r="N14" s="7">
-        <v>102190</v>
+        <v>524920</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1681,10 +3034,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>321456</v>
+        <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1696,10 +3049,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>599</v>
+        <v>384</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1711,10 +3064,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>890</v>
+        <v>746</v>
       </c>
       <c r="N15" s="7">
-        <v>750012</v>
+        <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1734,10 +3087,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>187215</v>
+        <v>61294</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1749,10 +3102,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>221620</v>
+        <v>82680</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1764,10 +3117,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>737</v>
+        <v>138</v>
       </c>
       <c r="N16" s="7">
-        <v>408834</v>
+        <v>143974</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1785,10 +3138,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D17" s="7">
-        <v>9533</v>
+        <v>142014</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1800,10 +3153,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="I17" s="7">
-        <v>9547</v>
+        <v>124988</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1815,10 +3168,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="N17" s="7">
-        <v>19080</v>
+        <v>267002</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1836,10 +3189,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1851,10 +3204,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>490</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>231167</v>
+        <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1866,10 +3219,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>769</v>
+        <v>404</v>
       </c>
       <c r="N18" s="7">
-        <v>427914</v>
+        <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1889,10 +3242,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>156565</v>
+        <v>31771</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1904,10 +3257,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>299</v>
+        <v>47</v>
       </c>
       <c r="I19" s="7">
-        <v>171599</v>
+        <v>48260</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1919,10 +3272,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>518</v>
+        <v>78</v>
       </c>
       <c r="N19" s="7">
-        <v>328165</v>
+        <v>80031</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1940,10 +3293,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="D20" s="7">
-        <v>120658</v>
+        <v>239040</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1955,10 +3308,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="I20" s="7">
-        <v>104023</v>
+        <v>229884</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1970,10 +3323,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>313</v>
+        <v>458</v>
       </c>
       <c r="N20" s="7">
-        <v>224680</v>
+        <v>468924</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1991,10 +3344,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2006,10 +3359,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2021,10 +3374,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>536</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2044,10 +3397,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>436</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7">
-        <v>448179</v>
+        <v>108299</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2059,10 +3412,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>735</v>
+        <v>128</v>
       </c>
       <c r="I22" s="7">
-        <v>626125</v>
+        <v>130451</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2074,10 +3427,10 @@
         <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1171</v>
+        <v>233</v>
       </c>
       <c r="N22" s="7">
-        <v>1074303</v>
+        <v>238749</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2095,10 +3448,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>160</v>
+        <v>493</v>
       </c>
       <c r="D23" s="7">
-        <v>177479</v>
+        <v>506728</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2110,10 +3463,10 @@
         <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>225</v>
+        <v>493</v>
       </c>
       <c r="I23" s="7">
-        <v>178078</v>
+        <v>507768</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2125,10 +3478,10 @@
         <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>385</v>
+        <v>986</v>
       </c>
       <c r="N23" s="7">
-        <v>355558</v>
+        <v>1014497</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2146,10 +3499,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>625658</v>
+        <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2161,10 +3514,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>960</v>
+        <v>621</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2176,10 +3529,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>1556</v>
+        <v>1219</v>
       </c>
       <c r="N24" s="7">
-        <v>1429861</v>
+        <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2199,10 +3552,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>651</v>
+        <v>204</v>
       </c>
       <c r="D25" s="7">
-        <v>741365</v>
+        <v>204551</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2214,10 +3567,10 @@
         <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>922</v>
+        <v>266</v>
       </c>
       <c r="I25" s="7">
-        <v>744778</v>
+        <v>280809</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -2229,10 +3582,10 @@
         <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>1573</v>
+        <v>470</v>
       </c>
       <c r="N25" s="7">
-        <v>1486143</v>
+        <v>485359</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -2250,10 +3603,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>110</v>
+        <v>532</v>
       </c>
       <c r="D26" s="7">
-        <v>117249</v>
+        <v>539244</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -2265,10 +3618,10 @@
         <v>157</v>
       </c>
       <c r="H26" s="7">
-        <v>138</v>
+        <v>478</v>
       </c>
       <c r="I26" s="7">
-        <v>121702</v>
+        <v>501642</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -2280,10 +3633,10 @@
         <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>248</v>
+        <v>1010</v>
       </c>
       <c r="N26" s="7">
-        <v>238951</v>
+        <v>1040887</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -2301,10 +3654,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="D27" s="7">
-        <v>858614</v>
+        <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2316,10 +3669,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>1060</v>
+        <v>744</v>
       </c>
       <c r="I27" s="7">
-        <v>866480</v>
+        <v>782451</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2331,10 +3684,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>1821</v>
+        <v>1480</v>
       </c>
       <c r="N27" s="7">
-        <v>1725094</v>
+        <v>1526246</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2354,10 +3707,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2425</v>
+        <v>671</v>
       </c>
       <c r="D28" s="7">
-        <v>2404845</v>
+        <v>686702</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -2369,10 +3722,10 @@
         <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>4151</v>
+        <v>908</v>
       </c>
       <c r="I28" s="7">
-        <v>2932231</v>
+        <v>941363</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -2384,10 +3737,10 @@
         <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>6576</v>
+        <v>1579</v>
       </c>
       <c r="N28" s="7">
-        <v>5337076</v>
+        <v>1628064</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>170</v>
@@ -2405,19 +3758,4594 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>2542</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2589007</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2388</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2436775</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4930</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5025783</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3213</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3275709</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3296</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3378138</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6509</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6653847</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7505C4B2-2DE9-474A-9804-24C1A11784EF}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>75678</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="7">
+        <v>97</v>
+      </c>
+      <c r="I7" s="7">
+        <v>107900</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="7">
+        <v>166</v>
+      </c>
+      <c r="N7" s="7">
+        <v>183578</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>403</v>
+      </c>
+      <c r="D8" s="7">
+        <v>429849</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="7">
+        <v>383</v>
+      </c>
+      <c r="I8" s="7">
+        <v>415865</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" s="7">
+        <v>786</v>
+      </c>
+      <c r="N8" s="7">
+        <v>845714</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>472</v>
+      </c>
+      <c r="D9" s="7">
+        <v>505527</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>480</v>
+      </c>
+      <c r="I9" s="7">
+        <v>523765</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>952</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1029292</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>177</v>
+      </c>
+      <c r="D10" s="7">
+        <v>183239</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="7">
+        <v>224</v>
+      </c>
+      <c r="I10" s="7">
+        <v>240719</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="7">
+        <v>401</v>
+      </c>
+      <c r="N10" s="7">
+        <v>423959</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7">
+        <v>139779</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="7">
+        <v>93</v>
+      </c>
+      <c r="I11" s="7">
+        <v>100301</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M11" s="7">
+        <v>234</v>
+      </c>
+      <c r="N11" s="7">
+        <v>240079</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>318</v>
+      </c>
+      <c r="D12" s="7">
+        <v>323018</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>317</v>
+      </c>
+      <c r="I12" s="7">
+        <v>341020</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>635</v>
+      </c>
+      <c r="N12" s="7">
+        <v>664038</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>239</v>
+      </c>
+      <c r="D13" s="7">
+        <v>253981</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="7">
+        <v>326</v>
+      </c>
+      <c r="I13" s="7">
+        <v>356021</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" s="7">
+        <v>565</v>
+      </c>
+      <c r="N13" s="7">
+        <v>610003</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>387</v>
+      </c>
+      <c r="D14" s="7">
+        <v>414739</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="7">
+        <v>299</v>
+      </c>
+      <c r="I14" s="7">
+        <v>318131</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="7">
+        <v>686</v>
+      </c>
+      <c r="N14" s="7">
+        <v>732869</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>626</v>
+      </c>
+      <c r="D15" s="7">
+        <v>668720</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>625</v>
+      </c>
+      <c r="I15" s="7">
+        <v>674152</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1251</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1342872</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7">
+        <v>54360</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="7">
+        <v>68</v>
+      </c>
+      <c r="I16" s="7">
+        <v>70267</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="7">
+        <v>120</v>
+      </c>
+      <c r="N16" s="7">
+        <v>124627</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>144</v>
+      </c>
+      <c r="D17" s="7">
+        <v>158258</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="7">
+        <v>144</v>
+      </c>
+      <c r="I17" s="7">
+        <v>149324</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M17" s="7">
+        <v>288</v>
+      </c>
+      <c r="N17" s="7">
+        <v>307582</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>196</v>
+      </c>
+      <c r="D18" s="7">
+        <v>212618</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>212</v>
+      </c>
+      <c r="I18" s="7">
+        <v>219591</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>408</v>
+      </c>
+      <c r="N18" s="7">
+        <v>432209</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>140</v>
+      </c>
+      <c r="D19" s="7">
+        <v>147848</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" s="7">
+        <v>161</v>
+      </c>
+      <c r="I19" s="7">
+        <v>167003</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M19" s="7">
+        <v>301</v>
+      </c>
+      <c r="N19" s="7">
+        <v>314851</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>121</v>
+      </c>
+      <c r="D20" s="7">
+        <v>126133</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="7">
+        <v>107</v>
+      </c>
+      <c r="I20" s="7">
+        <v>111093</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="7">
+        <v>228</v>
+      </c>
+      <c r="N20" s="7">
+        <v>237226</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>261</v>
+      </c>
+      <c r="D21" s="7">
+        <v>273981</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>268</v>
+      </c>
+      <c r="I21" s="7">
+        <v>278096</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>529</v>
+      </c>
+      <c r="N21" s="7">
+        <v>552077</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>256</v>
+      </c>
+      <c r="D22" s="7">
+        <v>272437</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H22" s="7">
+        <v>348</v>
+      </c>
+      <c r="I22" s="7">
+        <v>375795</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M22" s="7">
+        <v>604</v>
+      </c>
+      <c r="N22" s="7">
+        <v>648232</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>357</v>
+      </c>
+      <c r="D23" s="7">
+        <v>385201</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="7">
+        <v>285</v>
+      </c>
+      <c r="I23" s="7">
+        <v>313355</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M23" s="7">
+        <v>642</v>
+      </c>
+      <c r="N23" s="7">
+        <v>698556</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>613</v>
+      </c>
+      <c r="D24" s="7">
+        <v>657638</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>633</v>
+      </c>
+      <c r="I24" s="7">
+        <v>689150</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1246</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1346788</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>219</v>
+      </c>
+      <c r="D25" s="7">
+        <v>240765</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>289</v>
+      </c>
+      <c r="I25" s="7">
+        <v>320088</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>508</v>
+      </c>
+      <c r="N25" s="7">
+        <v>560853</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>497</v>
+      </c>
+      <c r="D26" s="7">
+        <v>537304</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>467</v>
+      </c>
+      <c r="I26" s="7">
+        <v>502615</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>964</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1039919</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>716</v>
+      </c>
+      <c r="D27" s="7">
+        <v>778069</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>756</v>
+      </c>
+      <c r="I27" s="7">
+        <v>822703</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1472</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1600772</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1152</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1228309</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1513</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1637794</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M28" s="7">
+        <v>2665</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2866102</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2050</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2191263</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1778</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1910683</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3828</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4101946</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3419572</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3291</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3548477</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6493</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6968048</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98BFC4C-0303-4C6D-9345-80A7E3194F18}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>147</v>
+      </c>
+      <c r="D4" s="7">
+        <v>160182</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="7">
+        <v>186</v>
+      </c>
+      <c r="I4" s="7">
+        <v>195372</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M4" s="7">
+        <v>333</v>
+      </c>
+      <c r="N4" s="7">
+        <v>355554</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>118</v>
+      </c>
+      <c r="D5" s="7">
+        <v>132637</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" s="7">
+        <v>89</v>
+      </c>
+      <c r="I5" s="7">
+        <v>91345</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M5" s="7">
+        <v>207</v>
+      </c>
+      <c r="N5" s="7">
+        <v>223981</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>265</v>
+      </c>
+      <c r="D6" s="7">
+        <v>292819</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>275</v>
+      </c>
+      <c r="I6" s="7">
+        <v>286717</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>540</v>
+      </c>
+      <c r="N6" s="7">
+        <v>579535</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>108</v>
+      </c>
+      <c r="D7" s="7">
+        <v>115972</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" s="7">
+        <v>162</v>
+      </c>
+      <c r="I7" s="7">
+        <v>178343</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M7" s="7">
+        <v>270</v>
+      </c>
+      <c r="N7" s="7">
+        <v>294315</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>363</v>
+      </c>
+      <c r="D8" s="7">
+        <v>381644</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" s="7">
+        <v>320</v>
+      </c>
+      <c r="I8" s="7">
+        <v>342305</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M8" s="7">
+        <v>683</v>
+      </c>
+      <c r="N8" s="7">
+        <v>723949</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>471</v>
+      </c>
+      <c r="D9" s="7">
+        <v>497616</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>482</v>
+      </c>
+      <c r="I9" s="7">
+        <v>520648</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>953</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1018264</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7">
+        <v>72378</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="7">
+        <v>89</v>
+      </c>
+      <c r="I10" s="7">
+        <v>93277</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M10" s="7">
+        <v>167</v>
+      </c>
+      <c r="N10" s="7">
+        <v>165655</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>256</v>
+      </c>
+      <c r="D11" s="7">
+        <v>245265</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H11" s="7">
+        <v>243</v>
+      </c>
+      <c r="I11" s="7">
+        <v>243032</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M11" s="7">
+        <v>499</v>
+      </c>
+      <c r="N11" s="7">
+        <v>488297</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>334</v>
+      </c>
+      <c r="D12" s="7">
+        <v>317643</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>332</v>
+      </c>
+      <c r="I12" s="7">
+        <v>336309</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>666</v>
+      </c>
+      <c r="N12" s="7">
+        <v>653952</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>187</v>
+      </c>
+      <c r="D13" s="7">
+        <v>194596</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H13" s="7">
+        <v>231</v>
+      </c>
+      <c r="I13" s="7">
+        <v>251792</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M13" s="7">
+        <v>418</v>
+      </c>
+      <c r="N13" s="7">
+        <v>446388</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>167</v>
+      </c>
+      <c r="D14" s="7">
+        <v>175368</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H14" s="7">
+        <v>126</v>
+      </c>
+      <c r="I14" s="7">
+        <v>134533</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="M14" s="7">
+        <v>293</v>
+      </c>
+      <c r="N14" s="7">
+        <v>309901</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>354</v>
+      </c>
+      <c r="D15" s="7">
+        <v>369964</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>357</v>
+      </c>
+      <c r="I15" s="7">
+        <v>386325</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>711</v>
+      </c>
+      <c r="N15" s="7">
+        <v>756289</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7">
+        <v>51836</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="7">
+        <v>66</v>
+      </c>
+      <c r="I16" s="7">
+        <v>65814</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M16" s="7">
+        <v>118</v>
+      </c>
+      <c r="N16" s="7">
+        <v>117650</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>160</v>
+      </c>
+      <c r="D17" s="7">
+        <v>159385</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="7">
+        <v>157</v>
+      </c>
+      <c r="I17" s="7">
+        <v>152773</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M17" s="7">
+        <v>317</v>
+      </c>
+      <c r="N17" s="7">
+        <v>312158</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>212</v>
+      </c>
+      <c r="D18" s="7">
+        <v>211221</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>223</v>
+      </c>
+      <c r="I18" s="7">
+        <v>218587</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>435</v>
+      </c>
+      <c r="N18" s="7">
+        <v>429808</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7">
+        <v>51980</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H19" s="7">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7">
+        <v>61996</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M19" s="7">
+        <v>112</v>
+      </c>
+      <c r="N19" s="7">
+        <v>113976</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>206</v>
+      </c>
+      <c r="D20" s="7">
+        <v>210132</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H20" s="7">
+        <v>202</v>
+      </c>
+      <c r="I20" s="7">
+        <v>210026</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M20" s="7">
+        <v>408</v>
+      </c>
+      <c r="N20" s="7">
+        <v>420158</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>258</v>
+      </c>
+      <c r="D21" s="7">
+        <v>262112</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>262</v>
+      </c>
+      <c r="I21" s="7">
+        <v>272022</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>520</v>
+      </c>
+      <c r="N21" s="7">
+        <v>534134</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>149</v>
+      </c>
+      <c r="D22" s="7">
+        <v>166455</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H22" s="7">
+        <v>229</v>
+      </c>
+      <c r="I22" s="7">
+        <v>250142</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M22" s="7">
+        <v>378</v>
+      </c>
+      <c r="N22" s="7">
+        <v>416597</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>427</v>
+      </c>
+      <c r="D23" s="7">
+        <v>484917</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H23" s="7">
+        <v>410</v>
+      </c>
+      <c r="I23" s="7">
+        <v>433734</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M23" s="7">
+        <v>837</v>
+      </c>
+      <c r="N23" s="7">
+        <v>918651</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>576</v>
+      </c>
+      <c r="D24" s="7">
+        <v>651372</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>639</v>
+      </c>
+      <c r="I24" s="7">
+        <v>683876</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1215</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1335248</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>114</v>
+      </c>
+      <c r="D25" s="7">
+        <v>121938</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H25" s="7">
+        <v>134</v>
+      </c>
+      <c r="I25" s="7">
+        <v>151477</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M25" s="7">
+        <v>248</v>
+      </c>
+      <c r="N25" s="7">
+        <v>273415</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>632</v>
+      </c>
+      <c r="D26" s="7">
+        <v>652487</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H26" s="7">
+        <v>618</v>
+      </c>
+      <c r="I26" s="7">
+        <v>671824</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1250</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1324311</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>746</v>
+      </c>
+      <c r="D27" s="7">
+        <v>774425</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>752</v>
+      </c>
+      <c r="I27" s="7">
+        <v>823301</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1498</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1597726</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>887</v>
+      </c>
+      <c r="D28" s="7">
+        <v>935337</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1157</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1248213</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M28" s="7">
+        <v>2044</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2183550</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2329</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2441835</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2165</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2279571</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4494</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4721406</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3216</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3377172</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3322</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3527784</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6538</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6904956</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71254158-3DDB-4B60-B3DB-E7EE884CE6CF}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>175</v>
+      </c>
+      <c r="D4" s="7">
+        <v>123562</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H4" s="7">
+        <v>316</v>
+      </c>
+      <c r="I4" s="7">
+        <v>152759</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M4" s="7">
+        <v>491</v>
+      </c>
+      <c r="N4" s="7">
+        <v>276320</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>156</v>
+      </c>
+      <c r="D5" s="7">
+        <v>136736</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H5" s="7">
+        <v>222</v>
+      </c>
+      <c r="I5" s="7">
+        <v>118644</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M5" s="7">
+        <v>378</v>
+      </c>
+      <c r="N5" s="7">
+        <v>255380</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>331</v>
+      </c>
+      <c r="D6" s="7">
+        <v>260298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>538</v>
+      </c>
+      <c r="I6" s="7">
+        <v>271403</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>869</v>
+      </c>
+      <c r="N6" s="7">
+        <v>531700</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>213</v>
+      </c>
+      <c r="D7" s="7">
+        <v>287537</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H7" s="7">
+        <v>479</v>
+      </c>
+      <c r="I7" s="7">
+        <v>364460</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="M7" s="7">
+        <v>692</v>
+      </c>
+      <c r="N7" s="7">
+        <v>651997</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>169</v>
+      </c>
+      <c r="D8" s="7">
+        <v>231760</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H8" s="7">
+        <v>238</v>
+      </c>
+      <c r="I8" s="7">
+        <v>190106</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M8" s="7">
+        <v>407</v>
+      </c>
+      <c r="N8" s="7">
+        <v>421867</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>382</v>
+      </c>
+      <c r="D9" s="7">
+        <v>519297</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>717</v>
+      </c>
+      <c r="I9" s="7">
+        <v>554566</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1099</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1073864</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>221</v>
+      </c>
+      <c r="D10" s="7">
+        <v>186944</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H10" s="7">
+        <v>406</v>
+      </c>
+      <c r="I10" s="7">
+        <v>276546</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M10" s="7">
+        <v>627</v>
+      </c>
+      <c r="N10" s="7">
+        <v>463491</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>139</v>
+      </c>
+      <c r="D11" s="7">
+        <v>135296</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H11" s="7">
+        <v>126</v>
+      </c>
+      <c r="I11" s="7">
+        <v>94527</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="M11" s="7">
+        <v>265</v>
+      </c>
+      <c r="N11" s="7">
+        <v>229823</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>360</v>
+      </c>
+      <c r="D12" s="7">
+        <v>322240</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>532</v>
+      </c>
+      <c r="I12" s="7">
+        <v>371073</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>892</v>
+      </c>
+      <c r="N12" s="7">
+        <v>693314</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>246</v>
+      </c>
+      <c r="D13" s="7">
+        <v>273478</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H13" s="7">
+        <v>521</v>
+      </c>
+      <c r="I13" s="7">
+        <v>374345</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M13" s="7">
+        <v>767</v>
+      </c>
+      <c r="N13" s="7">
+        <v>647822</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7">
+        <v>47978</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H14" s="7">
+        <v>78</v>
+      </c>
+      <c r="I14" s="7">
+        <v>54211</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="M14" s="7">
+        <v>123</v>
+      </c>
+      <c r="N14" s="7">
+        <v>102190</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>291</v>
+      </c>
+      <c r="D15" s="7">
+        <v>321456</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>599</v>
+      </c>
+      <c r="I15" s="7">
+        <v>428556</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>890</v>
+      </c>
+      <c r="N15" s="7">
+        <v>750012</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>264</v>
+      </c>
+      <c r="D16" s="7">
+        <v>187215</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H16" s="7">
+        <v>473</v>
+      </c>
+      <c r="I16" s="7">
+        <v>221620</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="M16" s="7">
+        <v>737</v>
+      </c>
+      <c r="N16" s="7">
+        <v>408834</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9533</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H17" s="7">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9547</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M17" s="7">
+        <v>32</v>
+      </c>
+      <c r="N17" s="7">
+        <v>19080</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>279</v>
+      </c>
+      <c r="D18" s="7">
+        <v>196748</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>490</v>
+      </c>
+      <c r="I18" s="7">
+        <v>231167</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>769</v>
+      </c>
+      <c r="N18" s="7">
+        <v>427914</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>219</v>
+      </c>
+      <c r="D19" s="7">
+        <v>156565</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H19" s="7">
+        <v>299</v>
+      </c>
+      <c r="I19" s="7">
+        <v>171599</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="M19" s="7">
+        <v>518</v>
+      </c>
+      <c r="N19" s="7">
+        <v>328165</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>152</v>
+      </c>
+      <c r="D20" s="7">
+        <v>120658</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H20" s="7">
+        <v>161</v>
+      </c>
+      <c r="I20" s="7">
+        <v>104023</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M20" s="7">
+        <v>313</v>
+      </c>
+      <c r="N20" s="7">
+        <v>224680</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>371</v>
+      </c>
+      <c r="D21" s="7">
+        <v>277223</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>460</v>
+      </c>
+      <c r="I21" s="7">
+        <v>275622</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>831</v>
+      </c>
+      <c r="N21" s="7">
+        <v>552845</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>436</v>
+      </c>
+      <c r="D22" s="7">
+        <v>448179</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H22" s="7">
+        <v>735</v>
+      </c>
+      <c r="I22" s="7">
+        <v>626125</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1171</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1074303</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>160</v>
+      </c>
+      <c r="D23" s="7">
+        <v>177479</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H23" s="7">
+        <v>225</v>
+      </c>
+      <c r="I23" s="7">
+        <v>178078</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="M23" s="7">
+        <v>385</v>
+      </c>
+      <c r="N23" s="7">
+        <v>355558</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>596</v>
+      </c>
+      <c r="D24" s="7">
+        <v>625658</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>960</v>
+      </c>
+      <c r="I24" s="7">
+        <v>804203</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1556</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1429861</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>651</v>
+      </c>
+      <c r="D25" s="7">
+        <v>741365</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H25" s="7">
+        <v>922</v>
+      </c>
+      <c r="I25" s="7">
+        <v>744778</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1573</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1486143</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>110</v>
+      </c>
+      <c r="D26" s="7">
+        <v>117249</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H26" s="7">
+        <v>138</v>
+      </c>
+      <c r="I26" s="7">
+        <v>121702</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M26" s="7">
+        <v>248</v>
+      </c>
+      <c r="N26" s="7">
+        <v>238951</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>761</v>
+      </c>
+      <c r="D27" s="7">
+        <v>858614</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I27" s="7">
+        <v>866480</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1821</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1725094</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2425</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2404845</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4151</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2932231</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6576</v>
+      </c>
+      <c r="N28" s="7">
+        <v>5337076</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
         <v>946</v>
       </c>
       <c r="D29" s="7">
         <v>976689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>625</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>626</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="H29" s="7">
         <v>1205</v>
@@ -2426,13 +8354,13 @@
         <v>870839</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>627</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>628</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>629</v>
       </c>
       <c r="M29" s="7">
         <v>2151</v>
@@ -2441,13 +8369,13 @@
         <v>1847528</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>630</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>631</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB5F22BA-F8F3-46F3-B723-D0D49178E3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4A7F4D-0040-49E2-BB4D-1E72E3F46B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE4B9B52-9F9F-4727-98B1-B18DC84901FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F2A09F1-86FF-4406-8EB2-F50770FE29CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>77,83%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>17,78%</t>
   </si>
   <si>
-    <t>14,36%</t>
+    <t>14,37%</t>
   </si>
   <si>
     <t>21,63%</t>
@@ -149,19 +149,19 @@
     <t>26,44%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>82,22%</t>
@@ -170,25 +170,25 @@
     <t>78,37%</t>
   </si>
   <si>
-    <t>85,64%</t>
+    <t>85,63%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1747 +197,1765 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>13,8%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F518EBB-E2EF-4956-948D-40DB9F7C8FC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6E538-AE50-4909-9916-84015F92A424}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3880,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7505C4B2-2DE9-474A-9804-24C1A11784EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26C0874-0C2B-4463-B0D8-46CDB9441094}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4174,10 +4192,10 @@
         <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4210,13 @@
         <v>429849</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -4207,13 +4225,13 @@
         <v>415865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>786</v>
@@ -4222,13 +4240,13 @@
         <v>845714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4314,13 @@
         <v>183239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>224</v>
@@ -4311,13 +4329,13 @@
         <v>240719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>401</v>
@@ -4326,13 +4344,13 @@
         <v>423959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4365,13 @@
         <v>139779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -4362,13 +4380,13 @@
         <v>100301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -4377,13 +4395,13 @@
         <v>240079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4469,13 @@
         <v>253981</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -4466,13 +4484,13 @@
         <v>356021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>565</v>
@@ -4481,13 +4499,13 @@
         <v>610003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4520,13 @@
         <v>414739</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>299</v>
@@ -4517,13 +4535,13 @@
         <v>318131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>686</v>
@@ -4532,13 +4550,13 @@
         <v>732869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4624,13 @@
         <v>54360</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -4621,13 +4639,13 @@
         <v>70267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -4636,13 +4654,13 @@
         <v>124627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4675,13 @@
         <v>158258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -4672,13 +4690,13 @@
         <v>149324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>288</v>
@@ -4687,13 +4705,13 @@
         <v>307582</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4779,13 @@
         <v>147848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -4776,13 +4794,13 @@
         <v>167003</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>301</v>
@@ -4791,13 +4809,13 @@
         <v>314851</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4830,13 @@
         <v>126133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -4827,13 +4845,13 @@
         <v>111093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
@@ -4842,13 +4860,13 @@
         <v>237226</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4934,13 @@
         <v>272437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>348</v>
@@ -4931,13 +4949,13 @@
         <v>375795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>604</v>
@@ -4946,13 +4964,13 @@
         <v>648232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4985,13 @@
         <v>385201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>285</v>
@@ -4982,13 +5000,13 @@
         <v>313355</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>642</v>
@@ -4997,13 +5015,13 @@
         <v>698556</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5089,13 @@
         <v>240765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>289</v>
@@ -5086,13 +5104,13 @@
         <v>320088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>508</v>
@@ -5101,13 +5119,13 @@
         <v>560853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5140,13 @@
         <v>537304</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>467</v>
@@ -5137,13 +5155,13 @@
         <v>502615</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>964</v>
@@ -5152,13 +5170,13 @@
         <v>1039919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5244,13 @@
         <v>1228309</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>1513</v>
@@ -5241,13 +5259,13 @@
         <v>1637794</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="M28" s="7">
         <v>2665</v>
@@ -5256,13 +5274,13 @@
         <v>2866102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5295,13 @@
         <v>2191263</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="H29" s="7">
         <v>1778</v>
@@ -5292,13 +5310,13 @@
         <v>1910683</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>3828</v>
@@ -5307,13 +5325,13 @@
         <v>4101946</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,7 +5411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98BFC4C-0303-4C6D-9345-80A7E3194F18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396030EC-51CD-48C1-975A-1665236FE94B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5410,7 +5428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5517,13 +5535,13 @@
         <v>160182</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>186</v>
@@ -5532,13 +5550,13 @@
         <v>195372</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>333</v>
@@ -5547,13 +5565,13 @@
         <v>355554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5586,13 @@
         <v>132637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -5583,13 +5601,13 @@
         <v>91345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>207</v>
@@ -5598,13 +5616,13 @@
         <v>223981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5690,13 @@
         <v>115972</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -5687,13 +5705,13 @@
         <v>178343</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>270</v>
@@ -5702,13 +5720,13 @@
         <v>294315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5741,13 @@
         <v>381644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5738,13 +5756,13 @@
         <v>342305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>683</v>
@@ -5753,13 +5771,13 @@
         <v>723949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5845,13 @@
         <v>72378</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -5842,13 +5860,13 @@
         <v>93277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -5857,13 +5875,13 @@
         <v>165655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5896,13 @@
         <v>245265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -5893,13 +5911,13 @@
         <v>243032</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>499</v>
@@ -5908,13 +5926,13 @@
         <v>488297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +6000,13 @@
         <v>194596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -5997,13 +6015,13 @@
         <v>251792</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>418</v>
@@ -6012,13 +6030,13 @@
         <v>446388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6051,13 @@
         <v>175368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -6048,13 +6066,13 @@
         <v>134533</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -6063,13 +6081,13 @@
         <v>309901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6155,13 @@
         <v>51836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -6152,13 +6170,13 @@
         <v>65814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -6167,13 +6185,13 @@
         <v>117650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6206,13 @@
         <v>159385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -6203,13 +6221,13 @@
         <v>152773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>317</v>
@@ -6218,13 +6236,13 @@
         <v>312158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6310,13 @@
         <v>51980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -6307,13 +6325,13 @@
         <v>61996</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -6322,13 +6340,13 @@
         <v>113976</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6361,13 @@
         <v>210132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -6358,13 +6376,13 @@
         <v>210026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>408</v>
@@ -6373,13 +6391,13 @@
         <v>420158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6465,13 @@
         <v>166455</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -6462,13 +6480,13 @@
         <v>250142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>378</v>
@@ -6477,13 +6495,13 @@
         <v>416597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6516,13 @@
         <v>484917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>410</v>
@@ -6513,13 +6531,13 @@
         <v>433734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>837</v>
@@ -6528,13 +6546,13 @@
         <v>918651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6620,13 @@
         <v>121938</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -6617,13 +6635,13 @@
         <v>151477</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>248</v>
@@ -6632,13 +6650,13 @@
         <v>273415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6671,13 @@
         <v>652487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -6668,13 +6686,13 @@
         <v>671824</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>1250</v>
@@ -6683,13 +6701,13 @@
         <v>1324311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6775,13 @@
         <v>935337</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>1157</v>
@@ -6772,13 +6790,13 @@
         <v>1248213</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>2044</v>
@@ -6787,13 +6805,13 @@
         <v>2183550</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6826,13 @@
         <v>2441835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H29" s="7">
         <v>2165</v>
@@ -6823,13 +6841,13 @@
         <v>2279571</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>4494</v>
@@ -6838,13 +6856,13 @@
         <v>4721406</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,7 +6942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71254158-3DDB-4B60-B3DB-E7EE884CE6CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1DA331-AAFD-4776-BF90-F88AA4CA53E0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6941,7 +6959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7048,13 +7066,13 @@
         <v>123562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>316</v>
@@ -7063,13 +7081,13 @@
         <v>152759</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>491</v>
@@ -7078,13 +7096,13 @@
         <v>276320</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7117,13 @@
         <v>136736</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>222</v>
@@ -7114,13 +7132,13 @@
         <v>118644</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>378</v>
@@ -7129,13 +7147,13 @@
         <v>255380</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7221,13 @@
         <v>287537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7">
         <v>479</v>
@@ -7218,13 +7236,13 @@
         <v>364460</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
         <v>692</v>
@@ -7233,13 +7251,13 @@
         <v>651997</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7272,13 @@
         <v>231760</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H8" s="7">
         <v>238</v>
@@ -7269,13 +7287,13 @@
         <v>190106</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
         <v>407</v>
@@ -7284,13 +7302,13 @@
         <v>421867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,28 +7376,28 @@
         <v>186944</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H10" s="7">
         <v>406</v>
       </c>
       <c r="I10" s="7">
-        <v>276546</v>
+        <v>276547</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="M10" s="7">
         <v>627</v>
@@ -7388,13 +7406,13 @@
         <v>463491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7427,13 @@
         <v>135296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
@@ -7424,13 +7442,13 @@
         <v>94527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -7439,13 +7457,13 @@
         <v>229823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,7 +7490,7 @@
         <v>532</v>
       </c>
       <c r="I12" s="7">
-        <v>371073</v>
+        <v>371074</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7513,13 +7531,13 @@
         <v>273478</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>521</v>
@@ -7528,13 +7546,13 @@
         <v>374345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
         <v>767</v>
@@ -7543,13 +7561,13 @@
         <v>647822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7582,13 @@
         <v>47978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -7579,13 +7597,13 @@
         <v>54211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -7594,13 +7612,13 @@
         <v>102190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7686,13 @@
         <v>187215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
         <v>473</v>
@@ -7683,13 +7701,13 @@
         <v>221620</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
         <v>737</v>
@@ -7698,13 +7716,13 @@
         <v>408834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7737,13 @@
         <v>9533</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -7734,13 +7752,13 @@
         <v>9547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -7749,13 +7767,13 @@
         <v>19080</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7841,13 @@
         <v>156565</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
         <v>299</v>
@@ -7838,13 +7856,13 @@
         <v>171599</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>518</v>
@@ -7853,13 +7871,13 @@
         <v>328165</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7892,13 @@
         <v>120658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -7889,13 +7907,13 @@
         <v>104023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
@@ -7904,13 +7922,13 @@
         <v>224680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +7996,13 @@
         <v>448179</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>735</v>
@@ -7993,13 +8011,13 @@
         <v>626125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="M22" s="7">
         <v>1171</v>
@@ -8008,13 +8026,13 @@
         <v>1074303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8047,13 @@
         <v>177479</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -8044,13 +8062,13 @@
         <v>178078</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>56</v>
+        <v>599</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="M23" s="7">
         <v>385</v>
@@ -8059,13 +8077,13 @@
         <v>355558</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8151,13 @@
         <v>741365</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>600</v>
+        <v>66</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H25" s="7">
         <v>922</v>
@@ -8148,13 +8166,13 @@
         <v>744778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="M25" s="7">
         <v>1573</v>
@@ -8163,13 +8181,13 @@
         <v>1486143</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8202,13 @@
         <v>117249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>610</v>
+        <v>57</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -8199,13 +8217,13 @@
         <v>121702</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
         <v>248</v>
@@ -8214,13 +8232,13 @@
         <v>238951</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,13 +8306,13 @@
         <v>2404845</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>622</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H28" s="7">
         <v>4151</v>
@@ -8303,13 +8321,13 @@
         <v>2932231</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="M28" s="7">
         <v>6576</v>
@@ -8318,13 +8336,13 @@
         <v>5337076</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,13 +8357,13 @@
         <v>976689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>37</v>
+        <v>632</v>
       </c>
       <c r="H29" s="7">
         <v>1205</v>
@@ -8354,13 +8372,13 @@
         <v>870839</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M29" s="7">
         <v>2151</v>
@@ -8369,13 +8387,13 @@
         <v>1847528</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4A7F4D-0040-49E2-BB4D-1E72E3F46B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5845A88C-F48A-4059-8592-81A9C86A107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F2A09F1-86FF-4406-8EB2-F50770FE29CB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4128B9C4-7F8D-4172-9F5E-CF140E82AB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="654">
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>14,97%</t>
@@ -704,58 +755,58 @@
     <t>39,99%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
   </si>
   <si>
     <t>25,57%</t>
@@ -1490,259 +1541,253 @@
     <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
   </si>
   <si>
     <t>60,8%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>93,47%</t>
+    <t>93,52%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>4,46%</t>
@@ -1751,211 +1796,211 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>71,63%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6E538-AE50-4909-9916-84015F92A424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75763F3B-BAE8-462F-BC82-CEBC3C2DBCA2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3743,7 +3788,7 @@
         <v>908</v>
       </c>
       <c r="I28" s="7">
-        <v>941363</v>
+        <v>941362</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -3845,7 +3890,7 @@
         <v>3296</v>
       </c>
       <c r="I30" s="7">
-        <v>3378138</v>
+        <v>3378137</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3898,7 +3943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26C0874-0C2B-4463-B0D8-46CDB9441094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE78D7-1DA4-4F9D-8BCA-E42364766282}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4016,43 +4061,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="D4" s="7">
+        <v>113889</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="I4" s="7">
+        <v>154851</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="N4" s="7">
+        <v>268740</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,43 +4112,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="D5" s="7">
+        <v>180849</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="I5" s="7">
+        <v>130350</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="N5" s="7">
+        <v>311199</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,43 +4163,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I6" s="7">
+        <v>285201</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N6" s="7">
+        <v>579939</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4222,13 @@
         <v>75678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -4174,13 +4237,13 @@
         <v>107900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>166</v>
@@ -4189,13 +4252,13 @@
         <v>183578</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4273,13 @@
         <v>429849</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -4225,13 +4288,13 @@
         <v>415865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>786</v>
@@ -4240,13 +4303,13 @@
         <v>845714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4377,13 @@
         <v>183239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>224</v>
@@ -4329,13 +4392,13 @@
         <v>240719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>401</v>
@@ -4344,13 +4407,13 @@
         <v>423959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4428,13 @@
         <v>139779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
@@ -4380,13 +4443,13 @@
         <v>100301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -4395,13 +4458,13 @@
         <v>240079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,49 +4526,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>130</v>
+      </c>
+      <c r="D13" s="7">
+        <v>140092</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="7">
-        <v>253981</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="I13" s="7">
-        <v>356021</v>
+        <v>201170</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
-        <v>565</v>
+        <v>320</v>
       </c>
       <c r="N13" s="7">
-        <v>610003</v>
+        <v>341263</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,49 +4577,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>387</v>
+        <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>414739</v>
+        <v>233890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="I14" s="7">
-        <v>318131</v>
+        <v>187781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>686</v>
+        <v>395</v>
       </c>
       <c r="N14" s="7">
-        <v>732869</v>
+        <v>421670</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,10 +4628,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4580,10 +4643,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>625</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>674152</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4595,10 +4658,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1251</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1342872</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4624,13 +4687,13 @@
         <v>54360</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -4639,13 +4702,13 @@
         <v>70267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -4654,13 +4717,13 @@
         <v>124627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4738,13 @@
         <v>158258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -4690,13 +4753,13 @@
         <v>149324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>288</v>
@@ -4705,13 +4768,13 @@
         <v>307582</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4842,13 @@
         <v>147848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -4794,13 +4857,13 @@
         <v>167003</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>301</v>
@@ -4809,13 +4872,13 @@
         <v>314851</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4893,13 @@
         <v>126133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -4845,13 +4908,13 @@
         <v>111093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
@@ -4860,13 +4923,13 @@
         <v>237226</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4997,13 @@
         <v>272437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>348</v>
@@ -4949,13 +5012,13 @@
         <v>375795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>604</v>
@@ -4964,13 +5027,13 @@
         <v>648232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5048,13 @@
         <v>385201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7">
         <v>285</v>
@@ -5000,13 +5063,13 @@
         <v>313355</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="M23" s="7">
         <v>642</v>
@@ -5015,13 +5078,13 @@
         <v>698556</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5152,13 @@
         <v>240765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>289</v>
@@ -5104,13 +5167,13 @@
         <v>320088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>508</v>
@@ -5119,13 +5182,13 @@
         <v>560853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5203,13 @@
         <v>537304</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>467</v>
@@ -5155,13 +5218,13 @@
         <v>502615</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>964</v>
@@ -5170,13 +5233,13 @@
         <v>1039919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5307,13 @@
         <v>1228309</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="H28" s="7">
         <v>1513</v>
@@ -5259,28 +5322,28 @@
         <v>1637794</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M28" s="7">
         <v>2665</v>
       </c>
       <c r="N28" s="7">
-        <v>2866102</v>
+        <v>2866103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,16 +5355,16 @@
         <v>2050</v>
       </c>
       <c r="D29" s="7">
-        <v>2191263</v>
+        <v>2191262</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="H29" s="7">
         <v>1778</v>
@@ -5310,13 +5373,13 @@
         <v>1910683</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M29" s="7">
         <v>3828</v>
@@ -5325,13 +5388,13 @@
         <v>4101946</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5406,7 @@
         <v>3202</v>
       </c>
       <c r="D30" s="7">
-        <v>3419572</v>
+        <v>3419571</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5373,7 +5436,7 @@
         <v>6493</v>
       </c>
       <c r="N30" s="7">
-        <v>6968048</v>
+        <v>6968049</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5411,7 +5474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396030EC-51CD-48C1-975A-1665236FE94B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02357567-A5C4-4400-917B-D4DBA1BB1CA8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5428,7 +5491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5535,13 +5598,13 @@
         <v>160182</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="H4" s="7">
         <v>186</v>
@@ -5550,13 +5613,13 @@
         <v>195372</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>333</v>
@@ -5565,13 +5628,13 @@
         <v>355554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5649,13 @@
         <v>132637</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -5601,13 +5664,13 @@
         <v>91345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="M5" s="7">
         <v>207</v>
@@ -5616,13 +5679,13 @@
         <v>223981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5753,13 @@
         <v>115972</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -5705,13 +5768,13 @@
         <v>178343</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>270</v>
@@ -5720,10 +5783,10 @@
         <v>294315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>152</v>
@@ -5741,13 +5804,13 @@
         <v>381644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5756,13 +5819,13 @@
         <v>342305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M8" s="7">
         <v>683</v>
@@ -5771,13 +5834,13 @@
         <v>723949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5908,13 @@
         <v>72378</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -5860,13 +5923,13 @@
         <v>93277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -5875,13 +5938,13 @@
         <v>165655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5959,13 @@
         <v>245265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -5911,13 +5974,13 @@
         <v>243032</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>499</v>
@@ -5926,13 +5989,13 @@
         <v>488297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6063,13 @@
         <v>194596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -6015,13 +6078,13 @@
         <v>251792</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>418</v>
@@ -6030,13 +6093,13 @@
         <v>446388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6114,13 @@
         <v>175368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -6066,13 +6129,13 @@
         <v>134533</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -6081,13 +6144,13 @@
         <v>309901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6218,13 @@
         <v>51836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -6170,13 +6233,13 @@
         <v>65814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -6185,13 +6248,13 @@
         <v>117650</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6269,13 @@
         <v>159385</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -6221,13 +6284,13 @@
         <v>152773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>317</v>
@@ -6236,13 +6299,13 @@
         <v>312158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6373,13 @@
         <v>51980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -6325,13 +6388,13 @@
         <v>61996</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -6340,13 +6403,13 @@
         <v>113976</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6424,13 @@
         <v>210132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -6376,28 +6439,28 @@
         <v>210026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>408</v>
       </c>
       <c r="N20" s="7">
-        <v>420158</v>
+        <v>420159</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,7 +6502,7 @@
         <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>534134</v>
+        <v>534135</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6465,13 +6528,13 @@
         <v>166455</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -6480,13 +6543,13 @@
         <v>250142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>378</v>
@@ -6495,13 +6558,13 @@
         <v>416597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6579,13 @@
         <v>484917</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7">
         <v>410</v>
@@ -6531,13 +6594,13 @@
         <v>433734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="M23" s="7">
         <v>837</v>
@@ -6546,13 +6609,13 @@
         <v>918651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6683,13 @@
         <v>121938</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -6635,13 +6698,13 @@
         <v>151477</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
         <v>248</v>
@@ -6650,13 +6713,13 @@
         <v>273415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6734,13 @@
         <v>652487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="H26" s="7">
         <v>618</v>
@@ -6686,13 +6749,13 @@
         <v>671824</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="M26" s="7">
         <v>1250</v>
@@ -6701,13 +6764,13 @@
         <v>1324311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6838,13 @@
         <v>935337</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="H28" s="7">
         <v>1157</v>
@@ -6790,13 +6853,13 @@
         <v>1248213</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="M28" s="7">
         <v>2044</v>
@@ -6805,13 +6868,13 @@
         <v>2183550</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,16 +6886,16 @@
         <v>2329</v>
       </c>
       <c r="D29" s="7">
-        <v>2441835</v>
+        <v>2441834</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="H29" s="7">
         <v>2165</v>
@@ -6841,13 +6904,13 @@
         <v>2279571</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="M29" s="7">
         <v>4494</v>
@@ -6856,13 +6919,13 @@
         <v>4721406</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,7 +6937,7 @@
         <v>3216</v>
       </c>
       <c r="D30" s="7">
-        <v>3377172</v>
+        <v>3377171</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6942,7 +7005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1DA331-AAFD-4776-BF90-F88AA4CA53E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BD10CE-72AD-400F-B892-FCA4FA74D0C3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6959,7 +7022,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7063,46 +7126,46 @@
         <v>175</v>
       </c>
       <c r="D4" s="7">
-        <v>123562</v>
+        <v>147780</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="H4" s="7">
         <v>316</v>
       </c>
       <c r="I4" s="7">
-        <v>152759</v>
+        <v>162453</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="M4" s="7">
         <v>491</v>
       </c>
       <c r="N4" s="7">
-        <v>276320</v>
+        <v>310233</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,46 +7177,46 @@
         <v>156</v>
       </c>
       <c r="D5" s="7">
-        <v>136736</v>
+        <v>163663</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="H5" s="7">
         <v>222</v>
       </c>
       <c r="I5" s="7">
-        <v>118644</v>
+        <v>127182</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="M5" s="7">
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>255380</v>
+        <v>290844</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,7 +7228,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7180,7 +7243,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7195,7 +7258,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7218,46 +7281,46 @@
         <v>213</v>
       </c>
       <c r="D7" s="7">
-        <v>287537</v>
+        <v>286503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>479</v>
       </c>
       <c r="I7" s="7">
-        <v>364460</v>
+        <v>338280</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>692</v>
       </c>
       <c r="N7" s="7">
-        <v>651997</v>
+        <v>624783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,46 +7332,46 @@
         <v>169</v>
       </c>
       <c r="D8" s="7">
-        <v>231760</v>
+        <v>231887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>510</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>238</v>
       </c>
       <c r="I8" s="7">
-        <v>190106</v>
+        <v>176689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="M8" s="7">
         <v>407</v>
       </c>
       <c r="N8" s="7">
-        <v>421867</v>
+        <v>408576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7383,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7335,7 +7398,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7350,7 +7413,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7373,46 +7436,46 @@
         <v>221</v>
       </c>
       <c r="D10" s="7">
-        <v>186944</v>
+        <v>181961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
         <v>406</v>
       </c>
       <c r="I10" s="7">
-        <v>276547</v>
+        <v>258784</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="M10" s="7">
         <v>627</v>
       </c>
       <c r="N10" s="7">
-        <v>463491</v>
+        <v>440745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,46 +7487,46 @@
         <v>139</v>
       </c>
       <c r="D11" s="7">
-        <v>135296</v>
+        <v>134089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>543</v>
       </c>
       <c r="H11" s="7">
         <v>126</v>
       </c>
       <c r="I11" s="7">
-        <v>94527</v>
+        <v>88311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
       </c>
       <c r="N11" s="7">
-        <v>229823</v>
+        <v>222400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,7 +7538,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7490,7 +7553,7 @@
         <v>532</v>
       </c>
       <c r="I12" s="7">
-        <v>371074</v>
+        <v>347095</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7505,7 +7568,7 @@
         <v>892</v>
       </c>
       <c r="N12" s="7">
-        <v>693314</v>
+        <v>663145</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7528,46 +7591,46 @@
         <v>246</v>
       </c>
       <c r="D13" s="7">
-        <v>273478</v>
+        <v>265010</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="H13" s="7">
         <v>521</v>
       </c>
       <c r="I13" s="7">
-        <v>374345</v>
+        <v>425805</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="M13" s="7">
         <v>767</v>
       </c>
       <c r="N13" s="7">
-        <v>647822</v>
+        <v>690815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,46 +7642,46 @@
         <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>47978</v>
+        <v>46805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
       </c>
       <c r="I14" s="7">
-        <v>54211</v>
+        <v>49913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
       </c>
       <c r="N14" s="7">
-        <v>102190</v>
+        <v>96718</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,7 +7693,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321456</v>
+        <v>311815</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7645,7 +7708,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7660,7 +7723,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750012</v>
+        <v>787533</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7683,46 +7746,46 @@
         <v>264</v>
       </c>
       <c r="D16" s="7">
-        <v>187215</v>
+        <v>170119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="H16" s="7">
         <v>473</v>
       </c>
       <c r="I16" s="7">
-        <v>221620</v>
+        <v>199332</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="M16" s="7">
         <v>737</v>
       </c>
       <c r="N16" s="7">
-        <v>408834</v>
+        <v>369451</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,46 +7797,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>9533</v>
+        <v>8623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>9547</v>
+        <v>8636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
       </c>
       <c r="N17" s="7">
-        <v>19080</v>
+        <v>17259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,7 +7848,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7800,7 +7863,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231167</v>
+        <v>207968</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7815,7 +7878,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427914</v>
+        <v>386710</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7838,46 +7901,46 @@
         <v>219</v>
       </c>
       <c r="D19" s="7">
-        <v>156565</v>
+        <v>151154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="H19" s="7">
         <v>299</v>
       </c>
       <c r="I19" s="7">
-        <v>171599</v>
+        <v>159927</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>591</v>
       </c>
       <c r="M19" s="7">
         <v>518</v>
       </c>
       <c r="N19" s="7">
-        <v>328165</v>
+        <v>311081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,46 +7952,46 @@
         <v>152</v>
       </c>
       <c r="D20" s="7">
-        <v>120658</v>
+        <v>118482</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
       </c>
       <c r="I20" s="7">
-        <v>104023</v>
+        <v>97129</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>599</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="M20" s="7">
         <v>313</v>
       </c>
       <c r="N20" s="7">
-        <v>224680</v>
+        <v>215611</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,7 +8003,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7955,7 +8018,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7970,7 +8033,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7993,46 +8056,46 @@
         <v>436</v>
       </c>
       <c r="D22" s="7">
-        <v>448179</v>
+        <v>444897</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>589</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>735</v>
       </c>
       <c r="I22" s="7">
-        <v>626125</v>
+        <v>683182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>590</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="M22" s="7">
         <v>1171</v>
       </c>
       <c r="N22" s="7">
-        <v>1074303</v>
+        <v>1128080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,46 +8107,46 @@
         <v>160</v>
       </c>
       <c r="D23" s="7">
-        <v>177479</v>
+        <v>177381</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>597</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
       </c>
       <c r="I23" s="7">
-        <v>178078</v>
+        <v>166083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>599</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="M23" s="7">
         <v>385</v>
       </c>
       <c r="N23" s="7">
-        <v>355558</v>
+        <v>343463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,7 +8158,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>625658</v>
+        <v>622278</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8110,7 +8173,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8125,7 +8188,7 @@
         <v>1556</v>
       </c>
       <c r="N24" s="7">
-        <v>1429861</v>
+        <v>1471543</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8148,46 +8211,46 @@
         <v>651</v>
       </c>
       <c r="D25" s="7">
-        <v>741365</v>
+        <v>828347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>66</v>
+        <v>619</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>922</v>
       </c>
       <c r="I25" s="7">
-        <v>744778</v>
+        <v>615999</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>1573</v>
       </c>
       <c r="N25" s="7">
-        <v>1486143</v>
+        <v>1444346</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,46 +8262,46 @@
         <v>110</v>
       </c>
       <c r="D26" s="7">
-        <v>117249</v>
+        <v>99665</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>57</v>
+        <v>629</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
       </c>
       <c r="I26" s="7">
-        <v>121702</v>
+        <v>100173</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="M26" s="7">
         <v>248</v>
       </c>
       <c r="N26" s="7">
-        <v>238951</v>
+        <v>199838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,7 +8313,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858614</v>
+        <v>928012</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8265,7 +8328,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866480</v>
+        <v>716172</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8280,7 +8343,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725094</v>
+        <v>1644184</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8303,46 +8366,46 @@
         <v>2425</v>
       </c>
       <c r="D28" s="7">
-        <v>2404845</v>
+        <v>2475771</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="H28" s="7">
         <v>4151</v>
       </c>
       <c r="I28" s="7">
-        <v>2932231</v>
+        <v>2843761</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="M28" s="7">
         <v>6576</v>
       </c>
       <c r="N28" s="7">
-        <v>5337076</v>
+        <v>5319533</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,46 +8417,46 @@
         <v>946</v>
       </c>
       <c r="D29" s="7">
-        <v>976689</v>
+        <v>980595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="H29" s="7">
         <v>1205</v>
       </c>
       <c r="I29" s="7">
-        <v>870839</v>
+        <v>814115</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="M29" s="7">
         <v>2151</v>
       </c>
       <c r="N29" s="7">
-        <v>1847528</v>
+        <v>1794710</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,7 +8468,7 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3381534</v>
+        <v>3456366</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8420,7 +8483,7 @@
         <v>5356</v>
       </c>
       <c r="I30" s="7">
-        <v>3803070</v>
+        <v>3657876</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8435,7 +8498,7 @@
         <v>8727</v>
       </c>
       <c r="N30" s="7">
-        <v>7184604</v>
+        <v>7114243</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
